--- a/Projects/Jfree Chart/Metric 6/Version 1.0.19/Feature Envy/Feature Envy.xlsx
+++ b/Projects/Jfree Chart/Metric 6/Version 1.0.19/Feature Envy/Feature Envy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karansharma/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karansharma/Desktop/SOEN6611_Project_Group_C/Projects/Jfree Chart/Metric 6/Version 1.0.19/Feature Envy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC4F0027-559F-3547-87B9-1B323FCFE650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BF3A5C-702B-CD4A-98AC-D7CF674D6A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8BC045F8-0B17-DD45-8CD8-1E8921D53F41}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{8BC045F8-0B17-DD45-8CD8-1E8921D53F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Feature_Envy" localSheetId="0">Sheet1!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{28435318-A703-A24B-99E8-0D06B8EE95A4}" name="Feature Envy" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/karansharma/Desktop/Feature Envy.txt">
+    <textPr sourceFile="/Users/karansharma/Desktop/Feature Envy.txt">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4D6021-BA3E-7D46-9D73-8288374681EE}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
